--- a/performance_2.xlsx
+++ b/performance_2.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="27660" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>cbond pair</t>
   </si>
@@ -61,63 +61,406 @@
     <t>2021-12-14 14:46:00 -&gt; 2022-06-28 15:00:00</t>
   </si>
   <si>
+    <t>['128081.SZ', '002203.SZ']</t>
+  </si>
+  <si>
     <t>2021-12-15 09:31:00 -&gt; 2022-06-24 15:00:00</t>
   </si>
   <si>
+    <t>['110061.SH', '600674.SH']</t>
+  </si>
+  <si>
     <t>2021-12-14 10:36:00 -&gt; 2022-03-23 15:00:00</t>
   </si>
   <si>
+    <t>['123046.SZ', '300587.SZ']</t>
+  </si>
+  <si>
     <t>2022-03-28 09:31:00 -&gt; 2022-06-28 15:00:00</t>
   </si>
   <si>
     <t>2022-04-08 10:42:00 -&gt; 2022-06-02 15:00:00</t>
   </si>
   <si>
+    <t>['113642.SH', '603185.SH']</t>
+  </si>
+  <si>
     <t>2022-06-06 09:41:00 -&gt; 2022-06-28 15:00:00</t>
-  </si>
-  <si>
-    <t>['128081.SZ', '002203.SZ']</t>
-  </si>
-  <si>
-    <t>['110061.SH', '600674.SH']</t>
-  </si>
-  <si>
-    <t>['123046.SZ', '300587.SZ']</t>
-  </si>
-  <si>
-    <t>['113642.SH', '603185.SH']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -140,9 +483,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -150,11 +735,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -437,19 +1074,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="24.2019230769231" customWidth="1"/>
+    <col min="2" max="2" width="25.3076923076923" customWidth="1"/>
+    <col min="6" max="6" width="12.9230769230769"/>
+    <col min="7" max="7" width="14.0769230769231"/>
+    <col min="8" max="9" width="12.9230769230769"/>
+    <col min="11" max="11" width="12.9230769230769"/>
+    <col min="15" max="15" width="12.9230769230769"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +1146,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>9.69</v>
@@ -542,13 +1190,13 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>9.199999999999999</v>
+        <v>9.2</v>
       </c>
       <c r="D3">
         <v>65</v>
@@ -589,10 +1237,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>6.73</v>
@@ -636,10 +1284,10 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>6.74</v>
@@ -683,10 +1331,10 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>145.66</v>
@@ -730,10 +1378,10 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>102.61</v>
@@ -775,195 +1423,8 @@
         <v>0.00718550775736711</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>102.61</v>
-      </c>
-      <c r="D8">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>36.59921143475287</v>
-      </c>
-      <c r="G8">
-        <v>-5.131994547120177</v>
-      </c>
-      <c r="H8">
-        <v>31.46721688763269</v>
-      </c>
-      <c r="I8">
-        <v>34.56309177877399</v>
-      </c>
-      <c r="J8">
-        <v>0.84375</v>
-      </c>
-      <c r="K8">
-        <v>1.320662304869309</v>
-      </c>
-      <c r="L8">
-        <v>16</v>
-      </c>
-      <c r="M8">
-        <v>32</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>0.007185507757367106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="D9">
-        <v>65</v>
-      </c>
-      <c r="E9">
-        <v>36</v>
-      </c>
-      <c r="F9">
-        <v>74.54675373913025</v>
-      </c>
-      <c r="G9">
-        <v>-34.76389139130433</v>
-      </c>
-      <c r="H9">
-        <v>39.78286234782592</v>
-      </c>
-      <c r="I9">
-        <v>40.93990947826077</v>
-      </c>
-      <c r="J9">
-        <v>0.6435643564356436</v>
-      </c>
-      <c r="K9">
-        <v>1.187652796846014</v>
-      </c>
-      <c r="L9">
-        <v>129</v>
-      </c>
-      <c r="M9">
-        <v>101</v>
-      </c>
-      <c r="N9">
-        <v>0.7829457364341085</v>
-      </c>
-      <c r="O9">
-        <v>0.002922429200129867</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>145.66</v>
-      </c>
-      <c r="D10">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>26</v>
-      </c>
-      <c r="F10">
-        <v>31.83185481092949</v>
-      </c>
-      <c r="G10">
-        <v>-37.54951556364136</v>
-      </c>
-      <c r="H10">
-        <v>-5.717660752711865</v>
-      </c>
-      <c r="I10">
-        <v>-6.268767847590397</v>
-      </c>
-      <c r="J10">
-        <v>0.5</v>
-      </c>
-      <c r="K10">
-        <v>0.8477301060510035</v>
-      </c>
-      <c r="L10">
-        <v>37</v>
-      </c>
-      <c r="M10">
-        <v>52</v>
-      </c>
-      <c r="N10">
-        <v>1.405405405405405</v>
-      </c>
-      <c r="O10">
-        <v>-0.0007500216000284122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>6.73</v>
-      </c>
-      <c r="D11">
-        <v>72</v>
-      </c>
-      <c r="E11">
-        <v>32</v>
-      </c>
-      <c r="F11">
-        <v>233.53877475156</v>
-      </c>
-      <c r="G11">
-        <v>-85.31485512451687</v>
-      </c>
-      <c r="H11">
-        <v>148.2239196270432</v>
-      </c>
-      <c r="I11">
-        <v>147.3374980683507</v>
-      </c>
-      <c r="J11">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="K11">
-        <v>1.216611231997109</v>
-      </c>
-      <c r="L11">
-        <v>66</v>
-      </c>
-      <c r="M11">
-        <v>104</v>
-      </c>
-      <c r="N11">
-        <v>1.575757575757576</v>
-      </c>
-      <c r="O11">
-        <v>0.004816622243590684</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>